--- a/数据整理/stocks/港股/00354-中软国际有限公司.xlsx
+++ b/数据整理/stocks/港股/00354-中软国际有限公司.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,115 +22,169 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>000906</t>
+  </si>
+  <si>
+    <t>270023</t>
+  </si>
+  <si>
+    <t>007110</t>
+  </si>
+  <si>
+    <t>011081</t>
+  </si>
+  <si>
+    <t>005504</t>
+  </si>
+  <si>
+    <t>001764</t>
+  </si>
+  <si>
+    <t>006595</t>
+  </si>
+  <si>
+    <t>006205</t>
+  </si>
+  <si>
+    <t>161124</t>
+  </si>
+  <si>
     <t>006263</t>
   </si>
   <si>
-    <t>161124</t>
-  </si>
-  <si>
-    <t>006205</t>
-  </si>
-  <si>
-    <t>001764</t>
-  </si>
-  <si>
-    <t>007110</t>
-  </si>
-  <si>
-    <t>011081</t>
-  </si>
-  <si>
-    <t>005504</t>
-  </si>
-  <si>
-    <t>006595</t>
-  </si>
-  <si>
-    <t>000906</t>
-  </si>
-  <si>
-    <t>270023</t>
+    <t>广发全球精选股票(QDII)美元现汇</t>
+  </si>
+  <si>
+    <t>广发全球精选股票(QDII)</t>
+  </si>
+  <si>
+    <t>国投瑞银港股通价值发现混合</t>
+  </si>
+  <si>
+    <t>国投瑞银港股通混合C</t>
+  </si>
+  <si>
+    <t>汇添富沪港深大盘价值混合</t>
+  </si>
+  <si>
+    <t>广发沪港深新机遇股票</t>
+  </si>
+  <si>
+    <t>广发港股通优质增长混合</t>
+  </si>
+  <si>
+    <t>汇添富沪港深优势精选定期开放混合</t>
+  </si>
+  <si>
+    <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
   </si>
   <si>
     <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
   </si>
   <si>
-    <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-  </si>
-  <si>
-    <t>汇添富沪港深优势精选定期开放混合</t>
-  </si>
-  <si>
-    <t>广发沪港深新机遇股票</t>
-  </si>
-  <si>
-    <t>国投瑞银港股通价值发现混合</t>
-  </si>
-  <si>
-    <t>国投瑞银港股通混合C</t>
-  </si>
-  <si>
-    <t>汇添富沪港深大盘价值混合</t>
-  </si>
-  <si>
-    <t>广发港股通优质增长混合</t>
-  </si>
-  <si>
-    <t>广发全球精选股票(QDII)美元现汇</t>
-  </si>
-  <si>
-    <t>广发全球精选股票(QDII)</t>
+    <t>23.84</t>
+  </si>
+  <si>
+    <t>16.83</t>
+  </si>
+  <si>
+    <t>11.34</t>
+  </si>
+  <si>
+    <t>7.60</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>89.22</t>
+  </si>
+  <si>
+    <t>88.79</t>
+  </si>
+  <si>
+    <t>91.36</t>
+  </si>
+  <si>
+    <t>80.59</t>
+  </si>
+  <si>
+    <t>96.75</t>
+  </si>
+  <si>
+    <t>96.70</t>
   </si>
   <si>
     <t>94.31</t>
   </si>
   <si>
-    <t>96.70</t>
-  </si>
-  <si>
-    <t>80.59</t>
-  </si>
-  <si>
-    <t>88.79</t>
-  </si>
-  <si>
-    <t>91.36</t>
-  </si>
-  <si>
-    <t>96.75</t>
-  </si>
-  <si>
-    <t>89.22</t>
+    <t>3.66</t>
+  </si>
+  <si>
+    <t>4.46</t>
+  </si>
+  <si>
+    <t>4.38</t>
+  </si>
+  <si>
+    <t>4.94</t>
+  </si>
+  <si>
+    <t>5.46</t>
+  </si>
+  <si>
+    <t>4.75</t>
   </si>
   <si>
     <t>2.21</t>
   </si>
   <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>4.94</t>
-  </si>
-  <si>
-    <t>4.46</t>
-  </si>
-  <si>
-    <t>4.38</t>
-  </si>
-  <si>
-    <t>5.46</t>
-  </si>
-  <si>
-    <t>3.66</t>
+    <t>0.8725</t>
+  </si>
+  <si>
+    <t>0.7506</t>
+  </si>
+  <si>
+    <t>0.4967</t>
+  </si>
+  <si>
+    <t>0.3754</t>
+  </si>
+  <si>
+    <t>0.0846</t>
+  </si>
+  <si>
+    <t>0.0370</t>
+  </si>
+  <si>
+    <t>0.0049</t>
+  </si>
+  <si>
+    <t>0.0027</t>
   </si>
 </sst>
 </file>
@@ -488,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,205 +564,271 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00354-中软国际有限公司.xlsx
+++ b/数据整理/stocks/港股/00354-中软国际有限公司.xlsx
@@ -903,12 +903,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/00354-中软国际有限公司.xlsx
+++ b/数据整理/stocks/港股/00354-中软国际有限公司.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -879,56 +931,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>